--- a/check_names.xlsx
+++ b/check_names.xlsx
@@ -158,7 +158,7 @@
     <t>betrag_kktrans_ch</t>
   </si>
   <si>
-    <t>anz_kkrans_ausl</t>
+    <t>anz_kktrans_ausl</t>
   </si>
   <si>
     <t>betrag_kktrans_ausl</t>
